--- a/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="144">
   <si>
     <t xml:space="preserve">广州斗满(DM)电子账单     </t>
   </si>
@@ -160,7 +160,7 @@
     <t>{business.warehouse}</t>
   </si>
   <si>
-    <t>{business.chargeType}</t>
+    <t>{business.businessType}</t>
   </si>
   <si>
     <t>{business.chargeCategory}</t>
@@ -175,9 +175,6 @@
     <t>{business.remark}</t>
   </si>
   <si>
-    <t>资金账流水号</t>
-  </si>
-  <si>
     <t>单号</t>
   </si>
   <si>
@@ -250,64 +247,88 @@
     <t>结算时间</t>
   </si>
   <si>
-    <t>充值</t>
-  </si>
-  <si>
-    <t>CKCNWLV622072900002155</t>
-  </si>
-  <si>
-    <t>523000014433350036963254</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>CNWLV6</t>
-  </si>
-  <si>
-    <t>云仓一件代发</t>
-  </si>
-  <si>
-    <t>深莞仓</t>
-  </si>
-  <si>
-    <t>罗马尼亚</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>COD服务</t>
-  </si>
-  <si>
-    <t>增值消费</t>
-  </si>
-  <si>
-    <t>退费</t>
-  </si>
-  <si>
-    <t>优惠</t>
-  </si>
-  <si>
-    <t>赔偿</t>
-  </si>
-  <si>
-    <t>补收</t>
-  </si>
-  <si>
-    <t>余额转换</t>
-  </si>
-  <si>
-    <t>提现</t>
-  </si>
-  <si>
-    <t>物流消费</t>
-  </si>
-  <si>
-    <t>转账</t>
-  </si>
-  <si>
-    <t>仓库处理费</t>
+    <t>{bill.businessCategory}</t>
+  </si>
+  <si>
+    <t>{bill.orderNo}</t>
+  </si>
+  <si>
+    <t>{bill.trackingNo}</t>
+  </si>
+  <si>
+    <t>{bill.refNo}</t>
+  </si>
+  <si>
+    <t>{bill.cusCode}</t>
+  </si>
+  <si>
+    <t>{bill.orderType}</t>
+  </si>
+  <si>
+    <t>{bill.warehouseCode}</t>
+  </si>
+  <si>
+    <t>{bill.country}</t>
+  </si>
+  <si>
+    <t>{bill.shipmentRule}</t>
+  </si>
+  <si>
+    <t>{bill.shipmentRuleName}</t>
+  </si>
+  <si>
+    <t>{bill.forecastWeight}</t>
+  </si>
+  <si>
+    <t>{bill.weight}</t>
+  </si>
+  <si>
+    <t>{bill.resultCalcWeight}</t>
+  </si>
+  <si>
+    <t>{bill.specifications}</t>
+  </si>
+  <si>
+    <t>{bill.currencyCode}</t>
+  </si>
+  <si>
+    <t>{bill.totalAmount}</t>
+  </si>
+  <si>
+    <t>{bill.warehoussFee}</t>
+  </si>
+  <si>
+    <t>{bill.exWarehourseFee}</t>
+  </si>
+  <si>
+    <t>{bill.packageFee}</t>
+  </si>
+  <si>
+    <t>{bill.freightFee}</t>
+  </si>
+  <si>
+    <t>{bill.handerFee}</t>
+  </si>
+  <si>
+    <t>{bill.remoteFee}</t>
+  </si>
+  <si>
+    <t>{bill.fuelFee}</t>
+  </si>
+  <si>
+    <t>{bill.returnFee}</t>
+  </si>
+  <si>
+    <t>{bill.packageDestrueFee}</t>
+  </si>
+  <si>
+    <t>{bill.otherFee}</t>
+  </si>
+  <si>
+    <t>{bill.createTime}</t>
+  </si>
+  <si>
+    <t>{bill.paymentTime}</t>
   </si>
   <si>
     <t>扣费日期</t>
@@ -391,6 +412,9 @@
     <t>旺季仓租</t>
   </si>
   <si>
+    <t>{bill.shipmentService}</t>
+  </si>
+  <si>
     <t>资金流水号</t>
   </si>
   <si>
@@ -410,6 +434,27 @@
   </si>
   <si>
     <t>附注</t>
+  </si>
+  <si>
+    <t>{bill.serialNumber}</t>
+  </si>
+  <si>
+    <t>{bill.no}</t>
+  </si>
+  <si>
+    <t>{bill.amount}</t>
+  </si>
+  <si>
+    <t>{bill.productCategory}</t>
+  </si>
+  <si>
+    <t>{bill.productCode}</t>
+  </si>
+  <si>
+    <t>{bill.chargeType}</t>
+  </si>
+  <si>
+    <t>{bill.remark}</t>
   </si>
 </sst>
 </file>
@@ -424,7 +469,7 @@
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -439,13 +484,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -454,6 +506,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -467,13 +526,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -625,13 +677,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF004597"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF004597"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,7 +784,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -772,19 +824,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -796,6 +835,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -818,6 +870,36 @@
         <color indexed="8"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -984,7 +1066,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -996,33 +1078,30 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1034,52 +1113,55 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1094,10 +1176,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1106,29 +1188,29 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1138,112 +1220,118 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1655,126 +1743,125 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="22.875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="7" customWidth="1"/>
-    <col min="6" max="8" width="20.625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="7"/>
+    <col min="1" max="2" width="20.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="8" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="8" customWidth="1"/>
+    <col min="6" max="8" width="20.625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="58.5" customHeight="1" spans="1:4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" ht="57" customHeight="1" spans="1:6">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:9">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="25" t="s">
@@ -1798,7 +1885,7 @@
       <c r="H9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="39" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1811,7 +1898,7 @@
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="37"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="28"/>
@@ -1822,7 +1909,7 @@
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="37"/>
+      <c r="I11" s="39"/>
     </row>
     <row r="12" customHeight="1" spans="1:9">
       <c r="A12" s="28"/>
@@ -1833,7 +1920,7 @@
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="27"/>
-      <c r="I12" s="37"/>
+      <c r="I12" s="39"/>
     </row>
     <row r="13" customHeight="1" spans="1:9">
       <c r="A13" s="28"/>
@@ -1844,7 +1931,7 @@
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="37"/>
+      <c r="I13" s="39"/>
     </row>
     <row r="15" customHeight="1" spans="1:8">
       <c r="A15" s="29" t="s">
@@ -1859,252 +1946,252 @@
       <c r="H15" s="29"/>
     </row>
     <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="24" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" ht="21" customHeight="1" spans="1:7">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
       <c r="A18" s="30"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="31"/>
-      <c r="G18" s="3"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" customHeight="1" spans="1:7">
       <c r="A19" s="30"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" customHeight="1" spans="1:7">
       <c r="A20" s="30"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" customHeight="1" spans="1:7">
       <c r="A21" s="30"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" customHeight="1" spans="1:7">
       <c r="A22" s="30"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" customHeight="1" spans="1:10">
       <c r="A23" s="30"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
     </row>
     <row r="24" customHeight="1" spans="1:10">
       <c r="A24" s="30"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
     </row>
     <row r="25" customHeight="1" spans="1:7">
-      <c r="A25" s="30"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" customHeight="1" spans="1:7">
-      <c r="A26" s="30"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" customHeight="1" spans="1:7">
-      <c r="A27" s="30"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" customHeight="1" spans="1:7">
-      <c r="A28" s="30"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" customHeight="1" spans="1:7">
-      <c r="A29" s="30"/>
-      <c r="B29" s="3"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="33"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
     </row>
     <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="30"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" customHeight="1" spans="1:7">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" customHeight="1" spans="1:7">
       <c r="A32" s="30"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" customHeight="1" spans="1:7">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" customHeight="1" spans="1:7">
-      <c r="A34" s="34"/>
-      <c r="B34" s="36"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
-      <c r="E34" s="3"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="30"/>
       <c r="G34" s="30"/>
     </row>
     <row r="35" customHeight="1" spans="1:7">
-      <c r="A35" s="34"/>
-      <c r="B35" s="36"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
-      <c r="E35" s="3"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
     </row>
     <row r="36" customHeight="1" spans="1:7">
-      <c r="A36" s="34"/>
-      <c r="B36" s="36"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
-      <c r="E36" s="3"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
     </row>
     <row r="37" customHeight="1" spans="1:7">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
     </row>
     <row r="38" customHeight="1" spans="1:7">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
     </row>
     <row r="39" customHeight="1" spans="1:7">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2122,78 +2209,804 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC28"/>
+  <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="26.75" customWidth="1"/>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
-    <col min="7" max="7" width="16.25" customWidth="1"/>
-    <col min="11" max="11" width="14.875" style="7" customWidth="1"/>
-    <col min="12" max="12" width="16.9583333333333" customWidth="1"/>
-    <col min="13" max="13" width="12.375" customWidth="1"/>
-    <col min="18" max="18" width="10.625" customWidth="1"/>
-    <col min="19" max="19" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="24.8916666666667" style="8" customWidth="1"/>
+    <col min="2" max="2" width="26.75" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="13.2583333333333" customWidth="1"/>
+    <col min="5" max="5" width="16.0833333333333" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="21.625" customWidth="1"/>
+    <col min="8" max="8" width="22.6083333333333" customWidth="1"/>
+    <col min="9" max="9" width="14.675" customWidth="1"/>
+    <col min="10" max="10" width="23.7916666666667" style="8" customWidth="1"/>
+    <col min="11" max="11" width="16.9583333333333" customWidth="1"/>
+    <col min="12" max="12" width="21.95" customWidth="1"/>
+    <col min="13" max="13" width="31.4166666666667" customWidth="1"/>
+    <col min="14" max="14" width="24.45" customWidth="1"/>
+    <col min="15" max="15" width="18.5833333333333" customWidth="1"/>
+    <col min="16" max="16" width="15.2166666666667" customWidth="1"/>
+    <col min="17" max="17" width="15.325" customWidth="1"/>
+    <col min="18" max="18" width="18.3666666666667" customWidth="1"/>
+    <col min="19" max="19" width="19.8833333333333" customWidth="1"/>
+    <col min="20" max="20" width="20.75" customWidth="1"/>
+    <col min="21" max="21" width="17.7083333333333" customWidth="1"/>
+    <col min="22" max="22" width="22.6083333333333" customWidth="1"/>
+    <col min="23" max="23" width="18.15" customWidth="1"/>
+    <col min="24" max="24" width="20.975" customWidth="1"/>
+    <col min="25" max="25" width="18.5833333333333" customWidth="1"/>
+    <col min="26" max="26" width="11.625" customWidth="1"/>
+    <col min="27" max="27" width="12.6" customWidth="1"/>
+    <col min="28" max="28" width="18.3583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="1:29">
+    <row r="1" spans="1:28">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="7"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="7"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="7"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="7"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="7"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="7"/>
+      <c r="F12" s="13"/>
+      <c r="J12" s="7"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="7"/>
+      <c r="F13" s="13"/>
+      <c r="J13" s="7"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="7"/>
+      <c r="F14" s="13"/>
+      <c r="J14" s="7"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="7"/>
+      <c r="F15" s="13"/>
+      <c r="J15" s="7"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+    </row>
+    <row r="16" spans="15:26">
+      <c r="O16" s="8"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+    </row>
+    <row r="17" spans="15:26">
+      <c r="O17" s="8"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+    </row>
+    <row r="18" spans="15:26">
+      <c r="O18" s="8"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+    </row>
+    <row r="19" spans="15:26">
+      <c r="O19" s="8"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+    </row>
+    <row r="20" spans="15:26">
+      <c r="O20" s="8"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+    </row>
+    <row r="21" spans="15:26">
+      <c r="O21" s="8"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+    </row>
+    <row r="22" spans="15:26">
+      <c r="O22" s="8"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+    </row>
+    <row r="23" spans="15:26">
+      <c r="O23" s="8"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+    </row>
+    <row r="24" spans="15:26">
+      <c r="O24" s="8"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+    </row>
+    <row r="25" spans="15:26">
+      <c r="O25" s="8"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+    </row>
+    <row r="26" spans="15:26">
+      <c r="O26" s="8"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+    </row>
+    <row r="27" spans="16:26">
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+    </row>
+    <row r="28" spans="16:26">
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AB25"/>
+  <sheetViews>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="28.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="26.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.125" style="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="14.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="1" customWidth="1"/>
+    <col min="12" max="13" width="20.25" style="1" customWidth="1"/>
+    <col min="14" max="21" width="9" style="1"/>
+    <col min="22" max="22" width="10.375" style="1" customWidth="1"/>
+    <col min="23" max="24" width="9" style="1"/>
+    <col min="25" max="25" width="9.75" style="1" customWidth="1"/>
+    <col min="26" max="26" width="10" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="18" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.5" spans="1:28">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>62</v>
@@ -2231,56 +3044,97 @@
       <c r="AB1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AC1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="1" spans="1:28">
+      <c r="A2" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="7"/>
+      <c r="B2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
@@ -2291,25 +3145,11 @@
       <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="7"/>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -2320,25 +3160,11 @@
       <c r="X4" s="11"/>
       <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="7"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
@@ -2349,25 +3175,11 @@
       <c r="X5" s="11"/>
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="7"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
@@ -2378,25 +3190,11 @@
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
       <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="7"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
@@ -2407,25 +3205,11 @@
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
       <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="7"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
@@ -2436,25 +3220,11 @@
       <c r="X8" s="11"/>
       <c r="Y8" s="11"/>
       <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="7"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
@@ -2465,25 +3235,11 @@
       <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
       <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="7"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
@@ -2494,25 +3250,11 @@
       <c r="X10" s="11"/>
       <c r="Y10" s="11"/>
       <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="7"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
@@ -2523,14 +3265,11 @@
       <c r="X11" s="11"/>
       <c r="Y11" s="11"/>
       <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-    </row>
-    <row r="12" spans="1:27">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="G12" s="13"/>
-      <c r="K12" s="5"/>
-      <c r="P12" s="7"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
@@ -2541,14 +3280,11 @@
       <c r="X12" s="11"/>
       <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-    </row>
-    <row r="13" spans="1:27">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="G13" s="13"/>
-      <c r="K13" s="5"/>
-      <c r="P13" s="7"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
@@ -2559,14 +3295,11 @@
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
       <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-    </row>
-    <row r="14" spans="1:27">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="G14" s="13"/>
-      <c r="K14" s="5"/>
-      <c r="P14" s="7"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
@@ -2577,14 +3310,11 @@
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-    </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="G15" s="13"/>
-      <c r="K15" s="5"/>
-      <c r="P15" s="7"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
@@ -2595,10 +3325,9 @@
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
       <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-    </row>
-    <row r="16" spans="16:27">
-      <c r="P16" s="7"/>
+    </row>
+    <row r="16" spans="16:26">
+      <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
@@ -2609,10 +3338,9 @@
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-    </row>
-    <row r="17" spans="16:27">
-      <c r="P17" s="7"/>
+    </row>
+    <row r="17" spans="16:26">
+      <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
@@ -2623,10 +3351,9 @@
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-    </row>
-    <row r="18" spans="16:27">
-      <c r="P18" s="7"/>
+    </row>
+    <row r="18" spans="16:26">
+      <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
@@ -2637,10 +3364,9 @@
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
       <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-    </row>
-    <row r="19" spans="16:27">
-      <c r="P19" s="7"/>
+    </row>
+    <row r="19" spans="16:26">
+      <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
@@ -2651,10 +3377,9 @@
       <c r="X19" s="11"/>
       <c r="Y19" s="11"/>
       <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-    </row>
-    <row r="20" spans="16:27">
-      <c r="P20" s="7"/>
+    </row>
+    <row r="20" spans="16:26">
+      <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
@@ -2665,10 +3390,9 @@
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-    </row>
-    <row r="21" spans="16:27">
-      <c r="P21" s="7"/>
+    </row>
+    <row r="21" spans="16:26">
+      <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
@@ -2679,10 +3403,9 @@
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-    </row>
-    <row r="22" spans="16:27">
-      <c r="P22" s="7"/>
+    </row>
+    <row r="22" spans="16:26">
+      <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
@@ -2693,10 +3416,9 @@
       <c r="X22" s="11"/>
       <c r="Y22" s="11"/>
       <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-    </row>
-    <row r="23" spans="16:27">
-      <c r="P23" s="7"/>
+    </row>
+    <row r="23" spans="16:26">
+      <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
@@ -2707,10 +3429,9 @@
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-    </row>
-    <row r="24" spans="16:27">
-      <c r="P24" s="7"/>
+    </row>
+    <row r="24" spans="16:26">
+      <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
@@ -2721,10 +3442,9 @@
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-    </row>
-    <row r="25" spans="16:27">
-      <c r="P25" s="7"/>
+    </row>
+    <row r="25" spans="16:26">
+      <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
@@ -2735,585 +3455,6 @@
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
       <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-    </row>
-    <row r="26" spans="16:27">
-      <c r="P26" s="7"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-    </row>
-    <row r="27" spans="17:27">
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
-    </row>
-    <row r="28" spans="17:27">
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="15"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AC25"/>
-  <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="10.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="26.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="1" customWidth="1"/>
-    <col min="5" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="14.875" style="7" customWidth="1"/>
-    <col min="12" max="12" width="13.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11" style="1" customWidth="1"/>
-    <col min="15" max="22" width="9" style="1"/>
-    <col min="23" max="23" width="10.375" style="1" customWidth="1"/>
-    <col min="24" max="25" width="9" style="1"/>
-    <col min="26" max="26" width="9.75" style="1" customWidth="1"/>
-    <col min="27" max="27" width="10" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="13.5" spans="1:29">
-      <c r="A1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
-      <c r="A2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-    </row>
-    <row r="5" spans="1:27">
-      <c r="A5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-    </row>
-    <row r="6" spans="1:27">
-      <c r="A6" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-    </row>
-    <row r="7" spans="1:27">
-      <c r="A7" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-    </row>
-    <row r="8" spans="1:27">
-      <c r="A8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-    </row>
-    <row r="11" spans="1:27">
-      <c r="A11" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-    </row>
-    <row r="12" spans="1:27">
-      <c r="A12" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-    </row>
-    <row r="13" spans="1:27">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-    </row>
-    <row r="14" spans="1:27">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-    </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-    </row>
-    <row r="16" spans="17:27">
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-    </row>
-    <row r="17" spans="17:27">
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-    </row>
-    <row r="18" spans="17:27">
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-    </row>
-    <row r="19" spans="17:27">
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-    </row>
-    <row r="20" spans="17:27">
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-    </row>
-    <row r="21" spans="17:27">
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-    </row>
-    <row r="22" spans="17:27">
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-    </row>
-    <row r="23" spans="17:27">
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-    </row>
-    <row r="24" spans="17:27">
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-    </row>
-    <row r="25" spans="17:27">
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3352,88 +3493,88 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:28">
       <c r="A1" s="10" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="W1" s="10" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Z1" s="10" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AA1" s="10" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AB1" s="10" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3445,21 +3586,27 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC22"/>
+  <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="15.2916666666667" customWidth="1"/>
+    <col min="8" max="8" width="13.3583333333333" customWidth="1"/>
+    <col min="9" max="9" width="14.6083333333333" customWidth="1"/>
+    <col min="10" max="10" width="16.0583333333333" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="14.25" customWidth="1"/>
+    <col min="13" max="13" width="20.575" customWidth="1"/>
+    <col min="27" max="27" width="10.9666666666667" customWidth="1"/>
+    <col min="28" max="28" width="14.6166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:28">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -3476,37 +3623,37 @@
         <v>53</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="2" t="s">
         <v>60</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>62</v>
@@ -3544,44 +3691,96 @@
       <c r="AB1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AC1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="1" ht="14.25" spans="1:28">
+      <c r="A2" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:27">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-    </row>
-    <row r="3" ht="14.25" spans="1:29">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="M2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:27">
+      <c r="A3" s="7"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3589,8 +3788,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="5"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -3607,14 +3806,10 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-    </row>
-    <row r="4" ht="14.25" spans="1:29">
-      <c r="A4" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="5"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:27">
+      <c r="A4" s="7"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -3622,8 +3817,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="5"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -3640,14 +3835,10 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-    </row>
-    <row r="5" ht="14.25" spans="1:29">
-      <c r="A5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="5"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:27">
+      <c r="A5" s="7"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -3655,8 +3846,8 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="5"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -3673,14 +3864,10 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:29">
-      <c r="A6" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="5"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:27">
+      <c r="A6" s="7"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -3688,8 +3875,8 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="5"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -3706,14 +3893,10 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:29">
-      <c r="A7" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="5"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:27">
+      <c r="A7" s="7"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -3721,8 +3904,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="5"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -3739,14 +3922,10 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:29">
-      <c r="A8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="5"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:27">
+      <c r="A8" s="7"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -3754,8 +3933,8 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="5"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -3772,14 +3951,10 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:29">
-      <c r="A9" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="5"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:27">
+      <c r="A9" s="7"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -3787,8 +3962,8 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="5"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -3805,14 +3980,10 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:29">
-      <c r="A10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="5"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:27">
+      <c r="A10" s="7"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -3820,8 +3991,8 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="5"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -3838,14 +4009,10 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:29">
-      <c r="A11" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="5"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:27">
+      <c r="A11" s="7"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -3853,8 +4020,8 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="5"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -3871,14 +4038,10 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:29">
-      <c r="A12" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="5"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:27">
+      <c r="A12" s="7"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -3886,8 +4049,8 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="5"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -3904,12 +4067,10 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:29">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:27">
+      <c r="A13" s="7"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -3917,8 +4078,8 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="5"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -3935,12 +4096,10 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:29">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:27">
+      <c r="A14" s="7"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -3948,8 +4107,8 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="5"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -3966,12 +4125,10 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-    </row>
-    <row r="15" ht="14.25" spans="1:29">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:27">
+      <c r="A15" s="7"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -3979,8 +4136,8 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="5"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -3997,12 +4154,10 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:29">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:27">
+      <c r="A16" s="8"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -4010,8 +4165,8 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="7"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -4028,12 +4183,10 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-    </row>
-    <row r="17" ht="14.25" spans="1:29">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:27">
+      <c r="A17" s="8"/>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -4041,8 +4194,8 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="7"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -4059,12 +4212,10 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:29">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:27">
+      <c r="A18" s="8"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -4072,8 +4223,8 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="7"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -4090,12 +4241,10 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-    </row>
-    <row r="19" ht="14.25" spans="1:29">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:27">
+      <c r="A19" s="8"/>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -4103,8 +4252,8 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="7"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -4121,12 +4270,10 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:29">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:27">
+      <c r="A20" s="8"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -4134,8 +4281,8 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="7"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -4152,12 +4299,10 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-    </row>
-    <row r="21" ht="14.25" spans="1:29">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:27">
+      <c r="A21" s="8"/>
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -4165,8 +4310,8 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="7"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -4183,12 +4328,10 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:29">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:27">
+      <c r="A22" s="8"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -4196,8 +4339,8 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="7"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -4214,8 +4357,6 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4229,7 +4370,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4240,7 +4381,8 @@
     <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.75" style="1" customWidth="1"/>
@@ -4252,10 +4394,10 @@
   <sheetData>
     <row r="1" ht="19.9" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>40</v>
@@ -4264,10 +4406,10 @@
         <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>38</v>
@@ -4276,231 +4418,259 @@
         <v>36</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>39</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" ht="30.95" customHeight="1" spans="1:14">
+      <c r="A2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" ht="30.95" customHeight="1" spans="1:14">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="H2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="3" ht="36.95" customHeight="1" spans="1:14">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" ht="30.95" customHeight="1" spans="1:14">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" ht="29.1" customHeight="1" spans="1:14">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" ht="14.25" spans="1:14">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" ht="14.25" spans="1:14">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" ht="14.25" spans="1:14">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" ht="14.25" spans="1:14">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
     </row>
     <row r="10" ht="14.25" spans="1:14">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" ht="14.25" spans="1:14">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" ht="14.25" spans="1:14">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
     </row>
     <row r="13" ht="14.25" spans="1:14">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
     </row>
     <row r="14" ht="14.25" spans="1:14">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4515,7 +4685,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4538,10 +4708,10 @@
   <sheetData>
     <row r="1" ht="19.9" customHeight="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>40</v>
@@ -4550,10 +4720,10 @@
         <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>38</v>
@@ -4562,218 +4732,246 @@
         <v>36</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>39</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" ht="30.95" customHeight="1" spans="1:14">
+      <c r="A2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" ht="30.95" customHeight="1" spans="1:14">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="H2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="3" ht="36.95" customHeight="1" spans="1:14">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" ht="29.1" customHeight="1" spans="1:14">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
     </row>
     <row r="5" ht="33" customHeight="1" spans="1:14">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" ht="14.25" spans="1:14">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" ht="14.25" spans="1:14">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" ht="14.25" spans="1:14">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" ht="14.25" spans="1:14">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
     </row>
     <row r="10" ht="14.25" spans="1:14">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" ht="14.25" spans="1:14">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" ht="14.25" spans="1:14">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
     </row>
     <row r="13" ht="14.25" spans="1:14">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
     </row>
     <row r="14" ht="14.25" spans="7:7">
-      <c r="G14" s="4"/>
+      <c r="G14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="客户资金结余" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="146">
   <si>
     <t xml:space="preserve">广州斗满(DM)电子账单     </t>
   </si>
@@ -187,6 +187,9 @@
     <t>客户代码</t>
   </si>
   <si>
+    <t>平台标记单号</t>
+  </si>
+  <si>
     <t>目的国家</t>
   </si>
   <si>
@@ -196,21 +199,126 @@
     <t>产品名称</t>
   </si>
   <si>
-    <t>客户下单重(单位)</t>
-  </si>
-  <si>
-    <t>仓库核重重量(单位)</t>
-  </si>
-  <si>
-    <t>计费重(单位)</t>
-  </si>
-  <si>
-    <t>规格</t>
+    <t>客户下单重(g)</t>
+  </si>
+  <si>
+    <t>仓库核重重量(g)</t>
+  </si>
+  <si>
+    <t>计费重(g)</t>
+  </si>
+  <si>
+    <t>规格(cm)</t>
   </si>
   <si>
     <t>合计费用</t>
   </si>
   <si>
+    <t>运费</t>
+  </si>
+  <si>
+    <t>处理费</t>
+  </si>
+  <si>
+    <t>偏远附加费</t>
+  </si>
+  <si>
+    <t>燃油费</t>
+  </si>
+  <si>
+    <t>退件费</t>
+  </si>
+  <si>
+    <t>包裹销毁费</t>
+  </si>
+  <si>
+    <t>其它费</t>
+  </si>
+  <si>
+    <t>下单时间</t>
+  </si>
+  <si>
+    <t>结算时间</t>
+  </si>
+  <si>
+    <t>{bill.businessCategory}</t>
+  </si>
+  <si>
+    <t>{bill.orderNo}</t>
+  </si>
+  <si>
+    <t>{bill.trackingNo}</t>
+  </si>
+  <si>
+    <t>{bill.refNo}</t>
+  </si>
+  <si>
+    <t>{bill.cusCode}</t>
+  </si>
+  <si>
+    <t>{bill.orderType}</t>
+  </si>
+  <si>
+    <t>{bill.warehouseCode}</t>
+  </si>
+  <si>
+    <t>{bill.amazonLogisticsRouteId}</t>
+  </si>
+  <si>
+    <t>{bill.country}</t>
+  </si>
+  <si>
+    <t>{bill.shipmentRule}</t>
+  </si>
+  <si>
+    <t>{bill.shipmentRuleName}</t>
+  </si>
+  <si>
+    <t>{bill.forecastWeight}</t>
+  </si>
+  <si>
+    <t>{bill.weight}</t>
+  </si>
+  <si>
+    <t>{bill.resultCalcWeight}</t>
+  </si>
+  <si>
+    <t>{bill.specifications}</t>
+  </si>
+  <si>
+    <t>{bill.currencyCode}</t>
+  </si>
+  <si>
+    <t>{bill.totalAmount}</t>
+  </si>
+  <si>
+    <t>{bill.freightFee}</t>
+  </si>
+  <si>
+    <t>{bill.handerFee}</t>
+  </si>
+  <si>
+    <t>{bill.remoteFee}</t>
+  </si>
+  <si>
+    <t>{bill.fuelFee}</t>
+  </si>
+  <si>
+    <t>{bill.returnFee}</t>
+  </si>
+  <si>
+    <t>{bill.packageDestrueFee}</t>
+  </si>
+  <si>
+    <t>{bill.otherFee}</t>
+  </si>
+  <si>
+    <t>{bill.createTime}</t>
+  </si>
+  <si>
+    <t>{bill.paymentTime}</t>
+  </si>
+  <si>
     <t>入库处理费</t>
   </si>
   <si>
@@ -220,81 +328,6 @@
     <t>包材操作费</t>
   </si>
   <si>
-    <t>运费</t>
-  </si>
-  <si>
-    <t>处理费</t>
-  </si>
-  <si>
-    <t>偏远附加费</t>
-  </si>
-  <si>
-    <t>燃油费</t>
-  </si>
-  <si>
-    <t>退件费</t>
-  </si>
-  <si>
-    <t>包裹销毁费</t>
-  </si>
-  <si>
-    <t>其它费</t>
-  </si>
-  <si>
-    <t>下单时间</t>
-  </si>
-  <si>
-    <t>结算时间</t>
-  </si>
-  <si>
-    <t>{bill.businessCategory}</t>
-  </si>
-  <si>
-    <t>{bill.orderNo}</t>
-  </si>
-  <si>
-    <t>{bill.trackingNo}</t>
-  </si>
-  <si>
-    <t>{bill.refNo}</t>
-  </si>
-  <si>
-    <t>{bill.cusCode}</t>
-  </si>
-  <si>
-    <t>{bill.orderType}</t>
-  </si>
-  <si>
-    <t>{bill.warehouseCode}</t>
-  </si>
-  <si>
-    <t>{bill.country}</t>
-  </si>
-  <si>
-    <t>{bill.shipmentRule}</t>
-  </si>
-  <si>
-    <t>{bill.shipmentRuleName}</t>
-  </si>
-  <si>
-    <t>{bill.forecastWeight}</t>
-  </si>
-  <si>
-    <t>{bill.weight}</t>
-  </si>
-  <si>
-    <t>{bill.resultCalcWeight}</t>
-  </si>
-  <si>
-    <t>{bill.specifications}</t>
-  </si>
-  <si>
-    <t>{bill.currencyCode}</t>
-  </si>
-  <si>
-    <t>{bill.totalAmount}</t>
-  </si>
-  <si>
     <t>{bill.warehoussFee}</t>
   </si>
   <si>
@@ -302,33 +335,6 @@
   </si>
   <si>
     <t>{bill.packageFee}</t>
-  </si>
-  <si>
-    <t>{bill.freightFee}</t>
-  </si>
-  <si>
-    <t>{bill.handerFee}</t>
-  </si>
-  <si>
-    <t>{bill.remoteFee}</t>
-  </si>
-  <si>
-    <t>{bill.fuelFee}</t>
-  </si>
-  <si>
-    <t>{bill.returnFee}</t>
-  </si>
-  <si>
-    <t>{bill.packageDestrueFee}</t>
-  </si>
-  <si>
-    <t>{bill.otherFee}</t>
-  </si>
-  <si>
-    <t>{bill.createTime}</t>
-  </si>
-  <si>
-    <t>{bill.paymentTime}</t>
   </si>
   <si>
     <t>扣费日期</t>
@@ -498,13 +504,6 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -526,6 +525,13 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -809,6 +815,19 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="thin">
@@ -835,19 +854,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1149,7 +1155,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1210,7 +1216,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1220,91 +1226,94 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1319,7 +1328,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1742,19 +1751,19 @@
   <sheetPr/>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="20.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="23.75" style="8" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="8" customWidth="1"/>
-    <col min="6" max="8" width="20.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="8"/>
+    <col min="1" max="2" width="20.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="10" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="10" customWidth="1"/>
+    <col min="6" max="8" width="20.625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="58.5" customHeight="1" spans="1:4">
@@ -1861,89 +1870,89 @@
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="40" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="28"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="39"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="40"/>
     </row>
     <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="28"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="39"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="40"/>
     </row>
     <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="28"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="39"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="40"/>
     </row>
     <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="28"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="39"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="40"/>
     </row>
     <row r="15" customHeight="1" spans="1:8">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="24" t="s">
@@ -1969,202 +1978,202 @@
       </c>
     </row>
     <row r="17" ht="21" customHeight="1" spans="1:7">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="30"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="4"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" customHeight="1" spans="1:7">
-      <c r="A19" s="30"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" customHeight="1" spans="1:7">
-      <c r="A20" s="30"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" customHeight="1" spans="1:7">
-      <c r="A21" s="30"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" customHeight="1" spans="1:7">
-      <c r="A22" s="30"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" customHeight="1" spans="1:10">
-      <c r="A23" s="30"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
     </row>
     <row r="24" customHeight="1" spans="1:10">
-      <c r="A24" s="30"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
     </row>
     <row r="25" customHeight="1" spans="1:7">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" customHeight="1" spans="1:7">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" customHeight="1" spans="1:7">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" customHeight="1" spans="1:7">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" customHeight="1" spans="1:7">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="34"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
     </row>
     <row r="31" customHeight="1" spans="1:7">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" customHeight="1" spans="1:7">
-      <c r="A32" s="30"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
     </row>
     <row r="33" customHeight="1" spans="1:7">
-      <c r="A33" s="36"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
     </row>
     <row r="34" customHeight="1" spans="1:7">
-      <c r="A34" s="36"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
     </row>
     <row r="35" customHeight="1" spans="1:7">
-      <c r="A35" s="36"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
     </row>
     <row r="36" customHeight="1" spans="1:7">
-      <c r="A36" s="36"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
     </row>
     <row r="37" customHeight="1" spans="1:7">
       <c r="A37" s="20"/>
@@ -2209,96 +2218,93 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB28"/>
+  <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="24.8916666666667" style="8" customWidth="1"/>
+    <col min="1" max="1" width="24.8916666666667" style="10" customWidth="1"/>
     <col min="2" max="2" width="26.75" customWidth="1"/>
     <col min="3" max="3" width="25.625" customWidth="1"/>
     <col min="4" max="4" width="13.2583333333333" customWidth="1"/>
     <col min="5" max="5" width="16.0833333333333" customWidth="1"/>
     <col min="6" max="6" width="16.25" customWidth="1"/>
-    <col min="7" max="7" width="21.625" customWidth="1"/>
-    <col min="8" max="8" width="22.6083333333333" customWidth="1"/>
-    <col min="9" max="9" width="14.675" customWidth="1"/>
-    <col min="10" max="10" width="23.7916666666667" style="8" customWidth="1"/>
-    <col min="11" max="11" width="16.9583333333333" customWidth="1"/>
-    <col min="12" max="12" width="21.95" customWidth="1"/>
-    <col min="13" max="13" width="31.4166666666667" customWidth="1"/>
-    <col min="14" max="14" width="24.45" customWidth="1"/>
-    <col min="15" max="15" width="18.5833333333333" customWidth="1"/>
-    <col min="16" max="16" width="15.2166666666667" customWidth="1"/>
-    <col min="17" max="17" width="15.325" customWidth="1"/>
-    <col min="18" max="18" width="18.3666666666667" customWidth="1"/>
-    <col min="19" max="19" width="19.8833333333333" customWidth="1"/>
-    <col min="20" max="20" width="20.75" customWidth="1"/>
-    <col min="21" max="21" width="17.7083333333333" customWidth="1"/>
-    <col min="22" max="22" width="22.6083333333333" customWidth="1"/>
-    <col min="23" max="23" width="18.15" customWidth="1"/>
-    <col min="24" max="24" width="20.975" customWidth="1"/>
-    <col min="25" max="25" width="18.5833333333333" customWidth="1"/>
-    <col min="26" max="26" width="11.625" customWidth="1"/>
-    <col min="27" max="27" width="12.6" customWidth="1"/>
-    <col min="28" max="28" width="18.3583333333333" customWidth="1"/>
+    <col min="7" max="8" width="21.625" customWidth="1"/>
+    <col min="9" max="9" width="22.6083333333333" customWidth="1"/>
+    <col min="10" max="10" width="14.675" customWidth="1"/>
+    <col min="11" max="11" width="23.7916666666667" style="10" customWidth="1"/>
+    <col min="12" max="12" width="16.9583333333333" customWidth="1"/>
+    <col min="13" max="13" width="21.95" customWidth="1"/>
+    <col min="14" max="14" width="31.4166666666667" customWidth="1"/>
+    <col min="15" max="15" width="24.45" customWidth="1"/>
+    <col min="16" max="16" width="18.5833333333333" customWidth="1"/>
+    <col min="17" max="17" width="15.2166666666667" customWidth="1"/>
+    <col min="18" max="18" width="20.75" customWidth="1"/>
+    <col min="19" max="19" width="17.7083333333333" customWidth="1"/>
+    <col min="20" max="20" width="22.6083333333333" customWidth="1"/>
+    <col min="21" max="21" width="18.15" customWidth="1"/>
+    <col min="22" max="22" width="20.975" customWidth="1"/>
+    <col min="23" max="23" width="18.5833333333333" customWidth="1"/>
+    <col min="24" max="24" width="11.625" customWidth="1"/>
+    <col min="25" max="25" width="12.6" customWidth="1"/>
+    <col min="26" max="26" width="18.3583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>62</v>
@@ -2327,119 +2333,107 @@
       <c r="Y1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AA1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="B2" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:28">
-      <c r="A2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="S2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="T2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="U2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="V2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="W2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="X2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="Y2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Z2" t="s">
         <v>97</v>
       </c>
-      <c r="Y2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="7"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="8"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="14"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="10"/>
       <c r="Q3" s="14"/>
       <c r="R3" s="14"/>
       <c r="S3" s="14"/>
@@ -2448,26 +2442,24 @@
       <c r="V3" s="14"/>
       <c r="W3" s="14"/>
       <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="7"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="8"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="14"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="10"/>
       <c r="Q4" s="14"/>
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
@@ -2476,26 +2468,24 @@
       <c r="V4" s="14"/>
       <c r="W4" s="14"/>
       <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="7"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="8"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="14"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="10"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="14"/>
       <c r="S5" s="14"/>
@@ -2504,26 +2494,24 @@
       <c r="V5" s="14"/>
       <c r="W5" s="14"/>
       <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="7"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="8"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="14"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="10"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
@@ -2532,26 +2520,24 @@
       <c r="V6" s="14"/>
       <c r="W6" s="14"/>
       <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="7"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="8"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="14"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="10"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
@@ -2560,26 +2546,24 @@
       <c r="V7" s="14"/>
       <c r="W7" s="14"/>
       <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="7"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="14"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="10"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
@@ -2588,26 +2572,24 @@
       <c r="V8" s="14"/>
       <c r="W8" s="14"/>
       <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="7"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="14"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="10"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
@@ -2616,26 +2598,24 @@
       <c r="V9" s="14"/>
       <c r="W9" s="14"/>
       <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="7"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="14"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="10"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
@@ -2644,26 +2624,24 @@
       <c r="V10" s="14"/>
       <c r="W10" s="14"/>
       <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="7"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="14"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="10"/>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
@@ -2672,15 +2650,12 @@
       <c r="V11" s="14"/>
       <c r="W11" s="14"/>
       <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="7"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="8"/>
       <c r="F12" s="13"/>
-      <c r="J12" s="7"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="14"/>
+      <c r="K12" s="8"/>
+      <c r="P12" s="10"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
@@ -2689,15 +2664,12 @@
       <c r="V12" s="14"/>
       <c r="W12" s="14"/>
       <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="7"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="8"/>
       <c r="F13" s="13"/>
-      <c r="J13" s="7"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="14"/>
+      <c r="K13" s="8"/>
+      <c r="P13" s="10"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
@@ -2706,15 +2678,12 @@
       <c r="V13" s="14"/>
       <c r="W13" s="14"/>
       <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="7"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="8"/>
       <c r="F14" s="13"/>
-      <c r="J14" s="7"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="14"/>
+      <c r="K14" s="8"/>
+      <c r="P14" s="10"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
@@ -2723,15 +2692,12 @@
       <c r="V14" s="14"/>
       <c r="W14" s="14"/>
       <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="7"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="8"/>
       <c r="F15" s="13"/>
-      <c r="J15" s="7"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="14"/>
+      <c r="K15" s="8"/>
+      <c r="P15" s="10"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
@@ -2740,12 +2706,9 @@
       <c r="V15" s="14"/>
       <c r="W15" s="14"/>
       <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-    </row>
-    <row r="16" spans="15:26">
-      <c r="O16" s="8"/>
-      <c r="P16" s="14"/>
+    </row>
+    <row r="16" spans="16:24">
+      <c r="P16" s="10"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
@@ -2754,12 +2717,9 @@
       <c r="V16" s="14"/>
       <c r="W16" s="14"/>
       <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-    </row>
-    <row r="17" spans="15:26">
-      <c r="O17" s="8"/>
-      <c r="P17" s="14"/>
+    </row>
+    <row r="17" spans="16:24">
+      <c r="P17" s="10"/>
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
@@ -2768,12 +2728,9 @@
       <c r="V17" s="14"/>
       <c r="W17" s="14"/>
       <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-    </row>
-    <row r="18" spans="15:26">
-      <c r="O18" s="8"/>
-      <c r="P18" s="14"/>
+    </row>
+    <row r="18" spans="16:24">
+      <c r="P18" s="10"/>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
@@ -2782,12 +2739,9 @@
       <c r="V18" s="14"/>
       <c r="W18" s="14"/>
       <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-    </row>
-    <row r="19" spans="15:26">
-      <c r="O19" s="8"/>
-      <c r="P19" s="14"/>
+    </row>
+    <row r="19" spans="16:24">
+      <c r="P19" s="10"/>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
@@ -2796,12 +2750,9 @@
       <c r="V19" s="14"/>
       <c r="W19" s="14"/>
       <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-    </row>
-    <row r="20" spans="15:26">
-      <c r="O20" s="8"/>
-      <c r="P20" s="14"/>
+    </row>
+    <row r="20" spans="16:24">
+      <c r="P20" s="10"/>
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
       <c r="S20" s="14"/>
@@ -2810,12 +2761,9 @@
       <c r="V20" s="14"/>
       <c r="W20" s="14"/>
       <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-    </row>
-    <row r="21" spans="15:26">
-      <c r="O21" s="8"/>
-      <c r="P21" s="14"/>
+    </row>
+    <row r="21" spans="16:24">
+      <c r="P21" s="10"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
       <c r="S21" s="14"/>
@@ -2824,12 +2772,9 @@
       <c r="V21" s="14"/>
       <c r="W21" s="14"/>
       <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-    </row>
-    <row r="22" spans="15:26">
-      <c r="O22" s="8"/>
-      <c r="P22" s="14"/>
+    </row>
+    <row r="22" spans="16:24">
+      <c r="P22" s="10"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
@@ -2838,12 +2783,9 @@
       <c r="V22" s="14"/>
       <c r="W22" s="14"/>
       <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="14"/>
-    </row>
-    <row r="23" spans="15:26">
-      <c r="O23" s="8"/>
-      <c r="P23" s="14"/>
+    </row>
+    <row r="23" spans="16:24">
+      <c r="P23" s="10"/>
       <c r="Q23" s="14"/>
       <c r="R23" s="14"/>
       <c r="S23" s="14"/>
@@ -2852,12 +2794,9 @@
       <c r="V23" s="14"/>
       <c r="W23" s="14"/>
       <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-    </row>
-    <row r="24" spans="15:26">
-      <c r="O24" s="8"/>
-      <c r="P24" s="14"/>
+    </row>
+    <row r="24" spans="16:24">
+      <c r="P24" s="10"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
@@ -2866,12 +2805,9 @@
       <c r="V24" s="14"/>
       <c r="W24" s="14"/>
       <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14"/>
-    </row>
-    <row r="25" spans="15:26">
-      <c r="O25" s="8"/>
-      <c r="P25" s="14"/>
+    </row>
+    <row r="25" spans="16:24">
+      <c r="P25" s="10"/>
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
@@ -2880,12 +2816,9 @@
       <c r="V25" s="14"/>
       <c r="W25" s="14"/>
       <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-    </row>
-    <row r="26" spans="15:26">
-      <c r="O26" s="8"/>
-      <c r="P26" s="14"/>
+    </row>
+    <row r="26" spans="16:24">
+      <c r="P26" s="10"/>
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
@@ -2894,11 +2827,8 @@
       <c r="V26" s="14"/>
       <c r="W26" s="14"/>
       <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
-    </row>
-    <row r="27" spans="16:26">
-      <c r="P27" s="15"/>
+    </row>
+    <row r="27" spans="17:24">
       <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
@@ -2907,11 +2837,8 @@
       <c r="V27" s="15"/>
       <c r="W27" s="15"/>
       <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-    </row>
-    <row r="28" spans="16:26">
-      <c r="P28" s="15"/>
+    </row>
+    <row r="28" spans="17:24">
       <c r="Q28" s="15"/>
       <c r="R28" s="15"/>
       <c r="S28" s="15"/>
@@ -2920,8 +2847,6 @@
       <c r="V28" s="15"/>
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2932,34 +2857,36 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB25"/>
+  <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="28.125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="28.125" style="10" customWidth="1"/>
     <col min="2" max="2" width="26.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.125" style="1" customWidth="1"/>
-    <col min="4" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="14.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="1" customWidth="1"/>
-    <col min="12" max="13" width="20.25" style="1" customWidth="1"/>
-    <col min="14" max="21" width="9" style="1"/>
-    <col min="22" max="22" width="10.375" style="1" customWidth="1"/>
-    <col min="23" max="24" width="9" style="1"/>
-    <col min="25" max="25" width="9.75" style="1" customWidth="1"/>
-    <col min="26" max="26" width="10" style="1" customWidth="1"/>
-    <col min="27" max="27" width="14.875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="18" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="1"/>
+    <col min="4" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="19.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="18.25" style="1" customWidth="1"/>
+    <col min="13" max="14" width="20.25" style="1" customWidth="1"/>
+    <col min="15" max="22" width="9" style="1"/>
+    <col min="23" max="23" width="10.375" style="1" customWidth="1"/>
+    <col min="24" max="25" width="9" style="1"/>
+    <col min="26" max="26" width="9.75" style="1" customWidth="1"/>
+    <col min="27" max="27" width="10" style="1" customWidth="1"/>
+    <col min="28" max="28" width="14.875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="18" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="1:28">
+    <row r="1" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -2981,480 +2908,495 @@
       <c r="G1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>60</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>62</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AA1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="1" spans="1:29">
+      <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" spans="1:28">
-      <c r="A2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="V2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="W2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="X2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="Y2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="Z2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="AA2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="AB2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="AC2" t="s">
         <v>97</v>
       </c>
-      <c r="Y2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-    </row>
-    <row r="16" spans="16:26">
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-    </row>
-    <row r="17" spans="16:26">
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-    </row>
-    <row r="18" spans="16:26">
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-    </row>
-    <row r="19" spans="16:26">
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-    </row>
-    <row r="20" spans="16:26">
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-    </row>
-    <row r="21" spans="16:26">
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-    </row>
-    <row r="22" spans="16:26">
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-    </row>
-    <row r="23" spans="16:26">
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-    </row>
-    <row r="24" spans="16:26">
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-    </row>
-    <row r="25" spans="16:26">
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="K3" s="8"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="K4" s="8"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="8"/>
+      <c r="H5" s="9"/>
+      <c r="K5" s="8"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="K6" s="8"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="K7" s="8"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="K8" s="8"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="K9" s="8"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="K10" s="8"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="K11" s="8"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+    </row>
+    <row r="16" spans="17:27">
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+    </row>
+    <row r="17" spans="17:27">
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+    </row>
+    <row r="18" spans="17:27">
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+    </row>
+    <row r="19" spans="17:27">
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+    </row>
+    <row r="20" spans="17:27">
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+    </row>
+    <row r="21" spans="17:27">
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+    </row>
+    <row r="22" spans="17:27">
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+    </row>
+    <row r="23" spans="17:27">
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+    </row>
+    <row r="24" spans="17:27">
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+    </row>
+    <row r="25" spans="17:27">
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3492,89 +3434,89 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:28">
-      <c r="A1" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="F1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="O1" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="P1" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="Q1" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="R1" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="S1" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="T1" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="U1" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="V1" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="W1" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="X1" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="Y1" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="Z1" s="11" t="s">
         <v>128</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3586,27 +3528,29 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB22"/>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="15.2916666666667" customWidth="1"/>
-    <col min="8" max="8" width="13.3583333333333" customWidth="1"/>
-    <col min="9" max="9" width="14.6083333333333" customWidth="1"/>
-    <col min="10" max="10" width="16.0583333333333" customWidth="1"/>
-    <col min="11" max="11" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="14.25" customWidth="1"/>
-    <col min="13" max="13" width="20.575" customWidth="1"/>
-    <col min="27" max="27" width="10.9666666666667" customWidth="1"/>
-    <col min="28" max="28" width="14.6166666666667" customWidth="1"/>
+    <col min="7" max="7" width="15.575" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="9" max="9" width="13.3583333333333" customWidth="1"/>
+    <col min="10" max="10" width="14.6083333333333" customWidth="1"/>
+    <col min="11" max="11" width="16.0583333333333" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="14.25" customWidth="1"/>
+    <col min="14" max="14" width="20.575" customWidth="1"/>
+    <col min="28" max="28" width="10.9666666666667" customWidth="1"/>
+    <col min="29" max="29" width="14.6166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -3628,168 +3572,174 @@
       <c r="G1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>60</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>62</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AA1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="1" ht="14.25" spans="1:29">
+      <c r="A2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" ht="14.25" spans="1:28">
-      <c r="A2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="V2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="W2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="X2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="Y2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="Z2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="AA2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="AB2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="AC2" t="s">
         <v>97</v>
       </c>
-      <c r="Y2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:27">
-      <c r="A3" s="7"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:28">
+      <c r="A3" s="8"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="8"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -3806,19 +3756,20 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
-    </row>
-    <row r="4" ht="14.25" spans="1:27">
-      <c r="A4" s="7"/>
+      <c r="AB3" s="1"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:28">
+      <c r="A4" s="8"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="8"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -3835,19 +3786,20 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
-    </row>
-    <row r="5" ht="14.25" spans="1:27">
-      <c r="A5" s="7"/>
+      <c r="AB4" s="1"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:28">
+      <c r="A5" s="8"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="8"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -3864,19 +3816,20 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:27">
-      <c r="A6" s="7"/>
+      <c r="AB5" s="1"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:28">
+      <c r="A6" s="8"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="8"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -3893,19 +3846,20 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:27">
-      <c r="A7" s="7"/>
+      <c r="AB6" s="1"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:28">
+      <c r="A7" s="8"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="8"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -3922,19 +3876,20 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:27">
-      <c r="A8" s="7"/>
+      <c r="AB7" s="1"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:28">
+      <c r="A8" s="8"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="9"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="8"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -3951,19 +3906,20 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:27">
-      <c r="A9" s="7"/>
+      <c r="AB8" s="1"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:28">
+      <c r="A9" s="8"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="8"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -3980,19 +3936,20 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:27">
-      <c r="A10" s="7"/>
+      <c r="AB9" s="1"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:28">
+      <c r="A10" s="8"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="9"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="8"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -4009,19 +3966,20 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:27">
-      <c r="A11" s="7"/>
+      <c r="AB10" s="1"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:28">
+      <c r="A11" s="8"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="8"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -4038,19 +3996,19 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:27">
-      <c r="A12" s="7"/>
+      <c r="AB11" s="1"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:28">
+      <c r="A12" s="8"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="8"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -4067,19 +4025,19 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:27">
-      <c r="A13" s="7"/>
+      <c r="AB12" s="1"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:28">
+      <c r="A13" s="8"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="8"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -4096,19 +4054,19 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:27">
-      <c r="A14" s="7"/>
+      <c r="AB13" s="1"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:28">
+      <c r="A14" s="8"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="8"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -4125,19 +4083,19 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
-    </row>
-    <row r="15" ht="14.25" spans="1:27">
-      <c r="A15" s="7"/>
+      <c r="AB14" s="1"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:28">
+      <c r="A15" s="8"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="8"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -4154,19 +4112,19 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:27">
-      <c r="A16" s="8"/>
+      <c r="AB15" s="1"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:28">
+      <c r="A16" s="10"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="10"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -4183,19 +4141,19 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
-    </row>
-    <row r="17" ht="14.25" spans="1:27">
-      <c r="A17" s="8"/>
+      <c r="AB16" s="1"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:28">
+      <c r="A17" s="10"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="10"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -4212,19 +4170,19 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:27">
-      <c r="A18" s="8"/>
+      <c r="AB17" s="1"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:28">
+      <c r="A18" s="10"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="10"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -4241,19 +4199,19 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
-    </row>
-    <row r="19" ht="14.25" spans="1:27">
-      <c r="A19" s="8"/>
+      <c r="AB18" s="1"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:28">
+      <c r="A19" s="10"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="10"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -4270,19 +4228,19 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:27">
-      <c r="A20" s="8"/>
+      <c r="AB19" s="1"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:28">
+      <c r="A20" s="10"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="10"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -4299,19 +4257,19 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
-    </row>
-    <row r="21" ht="14.25" spans="1:27">
-      <c r="A21" s="8"/>
+      <c r="AB20" s="1"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:28">
+      <c r="A21" s="10"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="10"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -4328,19 +4286,19 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:27">
-      <c r="A22" s="8"/>
+      <c r="AB21" s="1"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:28">
+      <c r="A22" s="10"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="10"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -4357,6 +4315,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4367,10 +4326,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4380,24 +4339,26 @@
     <col min="3" max="3" width="11.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24.875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="22.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="28.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="24.875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.9" customHeight="1" spans="1:14">
+    <row r="1" ht="19.9" customHeight="1" spans="1:16">
       <c r="A1" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>40</v>
@@ -4406,271 +4367,307 @@
         <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>132</v>
+        <v>106</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="K1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" ht="30.95" customHeight="1" spans="1:14">
-      <c r="A2" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="P1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" ht="30.95" customHeight="1" spans="1:16">
+      <c r="A2" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="I2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" ht="36.95" customHeight="1" spans="1:14">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" ht="30.95" customHeight="1" spans="1:14">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" ht="29.1" customHeight="1" spans="1:14">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:14">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:14">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:14">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:14">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:14">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:14">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:14">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:14">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:14">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="N2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" ht="36.95" customHeight="1" spans="1:16">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" ht="30.95" customHeight="1" spans="1:16">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" ht="29.1" customHeight="1" spans="1:16">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:16">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:16">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:16">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:16">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:16">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:16">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:16">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:16">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:16">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4682,10 +4679,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4695,23 +4692,25 @@
     <col min="3" max="3" width="11.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="50.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24.875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="26.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" customWidth="1"/>
+    <col min="9" max="10" width="9.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="27.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="50.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="24.875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.9" customHeight="1" spans="1:14">
+    <row r="1" ht="19.9" customHeight="1" spans="1:16">
       <c r="A1" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>40</v>
@@ -4720,258 +4719,292 @@
         <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>132</v>
+        <v>106</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="K1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" ht="30.95" customHeight="1" spans="1:14">
-      <c r="A2" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="P1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" ht="30.95" customHeight="1" spans="1:16">
+      <c r="A2" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="I2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" ht="36.95" customHeight="1" spans="1:14">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" ht="29.1" customHeight="1" spans="1:14">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" ht="33" customHeight="1" spans="1:14">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:14">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:14">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:14">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:14">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:14">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:14">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:14">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:14">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" ht="14.25" spans="7:7">
-      <c r="G14" s="5"/>
+      <c r="N2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" ht="36.95" customHeight="1" spans="1:16">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" ht="29.1" customHeight="1" spans="1:16">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" ht="33" customHeight="1" spans="1:16">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:16">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:16">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:16">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:16">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:16">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:16">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:16">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:16">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" ht="14.25" spans="9:9">
+      <c r="I14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-finance/src/main/resources/template/dm-oms-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="804"/>
   </bookViews>
   <sheets>
     <sheet name="客户资金结余" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="大货服务" sheetId="15" r:id="rId5"/>
     <sheet name="充值&amp;提现&amp;转换&amp;转账" sheetId="9" r:id="rId6"/>
     <sheet name="优惠&amp;赔偿" sheetId="11" r:id="rId7"/>
+    <sheet name="增值消费" sheetId="16" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">国内直发!#REF!</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="150">
   <si>
     <t xml:space="preserve">广州斗满(DM)电子账单     </t>
   </si>
@@ -461,6 +462,18 @@
   </si>
   <si>
     <t>{bill.remark}</t>
+  </si>
+  <si>
+    <t>平台标记单</t>
+  </si>
+  <si>
+    <t>费用</t>
+  </si>
+  <si>
+    <t>{bill.calcWeight}</t>
+  </si>
+  <si>
+    <t>{bill.orderTime}</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1235,6 +1248,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1250,6 +1266,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1336,6 +1355,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1751,229 +1773,229 @@
   <sheetPr/>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="20.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="23.75" style="10" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="10" customWidth="1"/>
-    <col min="6" max="8" width="20.625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="16.625" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="10"/>
+    <col min="1" max="2" width="20.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="11" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="11" customWidth="1"/>
+    <col min="6" max="8" width="20.625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="58.5" customHeight="1" spans="1:4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="22" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" ht="57" customHeight="1" spans="1:6">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:9">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="42" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="29"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="40"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="43"/>
     </row>
     <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="29"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="40"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="43"/>
     </row>
     <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="29"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="40"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="43"/>
     </row>
     <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="29"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="40"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="43"/>
     </row>
     <row r="15" customHeight="1" spans="1:8">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
     </row>
     <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="26" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1990,7 +2012,7 @@
       <c r="D17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>47</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -2001,16 +2023,16 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="31"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="32"/>
+      <c r="F18" s="34"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" customHeight="1" spans="1:7">
-      <c r="A19" s="31"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -2019,7 +2041,7 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" customHeight="1" spans="1:7">
-      <c r="A20" s="31"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -2028,7 +2050,7 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" customHeight="1" spans="1:7">
-      <c r="A21" s="31"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -2037,7 +2059,7 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" customHeight="1" spans="1:7">
-      <c r="A22" s="31"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -2046,77 +2068,77 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" customHeight="1" spans="1:10">
-      <c r="A23" s="31"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
     </row>
     <row r="24" customHeight="1" spans="1:10">
-      <c r="A24" s="31"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
     </row>
     <row r="25" customHeight="1" spans="1:7">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
     <row r="26" customHeight="1" spans="1:7">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
     <row r="27" customHeight="1" spans="1:7">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
     <row r="28" customHeight="1" spans="1:7">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
     <row r="29" customHeight="1" spans="1:7">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
     <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
@@ -2131,7 +2153,7 @@
       <c r="G31" s="5"/>
     </row>
     <row r="32" customHeight="1" spans="1:7">
-      <c r="A32" s="31"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -2140,8 +2162,8 @@
       <c r="G32" s="5"/>
     </row>
     <row r="33" customHeight="1" spans="1:7">
-      <c r="A33" s="37"/>
-      <c r="B33" s="38"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -2149,58 +2171,58 @@
       <c r="G33" s="5"/>
     </row>
     <row r="34" customHeight="1" spans="1:7">
-      <c r="A34" s="37"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
     </row>
     <row r="35" customHeight="1" spans="1:7">
-      <c r="A35" s="37"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
     </row>
     <row r="36" customHeight="1" spans="1:7">
-      <c r="A36" s="37"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
     </row>
     <row r="37" customHeight="1" spans="1:7">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
     </row>
     <row r="38" customHeight="1" spans="1:7">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
     </row>
     <row r="39" customHeight="1" spans="1:7">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2220,17 +2242,17 @@
   <sheetPr/>
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="Q2" sqref="Q2:X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="24.8916666666667" style="10" customWidth="1"/>
+    <col min="1" max="1" width="24.8916666666667" style="11" customWidth="1"/>
     <col min="2" max="2" width="26.75" customWidth="1"/>
     <col min="3" max="3" width="25.625" customWidth="1"/>
     <col min="4" max="4" width="13.2583333333333" customWidth="1"/>
@@ -2239,7 +2261,7 @@
     <col min="7" max="8" width="21.625" customWidth="1"/>
     <col min="9" max="9" width="22.6083333333333" customWidth="1"/>
     <col min="10" max="10" width="14.675" customWidth="1"/>
-    <col min="11" max="11" width="23.7916666666667" style="10" customWidth="1"/>
+    <col min="11" max="11" width="23.7916666666667" style="11" customWidth="1"/>
     <col min="12" max="12" width="16.9583333333333" customWidth="1"/>
     <col min="13" max="13" width="21.95" customWidth="1"/>
     <col min="14" max="14" width="31.4166666666667" customWidth="1"/>
@@ -2333,12 +2355,12 @@
       <c r="Y1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="Z1" s="18" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2386,28 +2408,28 @@
       <c r="P2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="12" t="s">
         <v>95</v>
       </c>
       <c r="Y2" s="4" t="s">
@@ -2418,435 +2440,435 @@
       </c>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="8"/>
-      <c r="F12" s="13"/>
-      <c r="K12" s="8"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
+      <c r="A12" s="9"/>
+      <c r="F12" s="15"/>
+      <c r="K12" s="9"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="8"/>
-      <c r="F13" s="13"/>
-      <c r="K13" s="8"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
+      <c r="A13" s="9"/>
+      <c r="F13" s="15"/>
+      <c r="K13" s="9"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="8"/>
-      <c r="F14" s="13"/>
-      <c r="K14" s="8"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
+      <c r="A14" s="9"/>
+      <c r="F14" s="15"/>
+      <c r="K14" s="9"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="8"/>
-      <c r="F15" s="13"/>
-      <c r="K15" s="8"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
+      <c r="A15" s="9"/>
+      <c r="F15" s="15"/>
+      <c r="K15" s="9"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
     </row>
     <row r="16" spans="16:24">
-      <c r="P16" s="10"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
     </row>
     <row r="17" spans="16:24">
-      <c r="P17" s="10"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
     </row>
     <row r="18" spans="16:24">
-      <c r="P18" s="10"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
     </row>
     <row r="19" spans="16:24">
-      <c r="P19" s="10"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
     </row>
     <row r="20" spans="16:24">
-      <c r="P20" s="10"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
     </row>
     <row r="21" spans="16:24">
-      <c r="P21" s="10"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
     </row>
     <row r="22" spans="16:24">
-      <c r="P22" s="10"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
     </row>
     <row r="23" spans="16:24">
-      <c r="P23" s="10"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
     </row>
     <row r="24" spans="16:24">
-      <c r="P24" s="10"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
     </row>
     <row r="25" spans="16:24">
-      <c r="P25" s="10"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
     </row>
     <row r="26" spans="16:24">
-      <c r="P26" s="10"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
     </row>
     <row r="27" spans="17:24">
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
     </row>
     <row r="28" spans="17:24">
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2859,13 +2881,13 @@
   <sheetPr/>
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="28.125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="28.125" style="11" customWidth="1"/>
     <col min="2" max="2" width="26.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.125" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
@@ -2873,7 +2895,7 @@
     <col min="8" max="8" width="21.625" customWidth="1"/>
     <col min="9" max="9" width="14.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="22.125" style="11" customWidth="1"/>
     <col min="12" max="12" width="18.25" style="1" customWidth="1"/>
     <col min="13" max="14" width="20.25" style="1" customWidth="1"/>
     <col min="15" max="22" width="9" style="1"/>
@@ -2886,7 +2908,7 @@
     <col min="30" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" ht="13.5" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -2976,7 +2998,7 @@
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:29">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3024,37 +3046,37 @@
       <c r="P2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="12" t="s">
         <v>95</v>
       </c>
       <c r="AB2" s="4" t="s">
@@ -3065,338 +3087,338 @@
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="K3" s="8"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
+      <c r="A3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="K3" s="9"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="K4" s="8"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
+      <c r="A4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="K4" s="9"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="K5" s="8"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
+      <c r="A5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="K5" s="9"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="K6" s="8"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
+      <c r="A6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="K6" s="9"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="K7" s="8"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
+      <c r="A7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="K7" s="9"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="K8" s="8"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
+      <c r="A8" s="9"/>
+      <c r="H8" s="10"/>
+      <c r="K8" s="9"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="8"/>
-      <c r="H9" s="9"/>
-      <c r="K9" s="8"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
+      <c r="A9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="K9" s="9"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="K10" s="8"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
+      <c r="A10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="K10" s="9"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
     </row>
     <row r="11" spans="1:27">
-      <c r="A11" s="8"/>
-      <c r="H11" s="9"/>
-      <c r="K11" s="8"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
+      <c r="A11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="K11" s="9"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
+      <c r="A12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
+      <c r="A13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
+      <c r="A14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
+      <c r="A15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
     </row>
     <row r="16" spans="17:27">
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
     </row>
     <row r="17" spans="17:27">
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
     </row>
     <row r="18" spans="17:27">
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
     </row>
     <row r="19" spans="17:27">
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
     </row>
     <row r="20" spans="17:27">
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
     </row>
     <row r="21" spans="17:27">
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
     </row>
     <row r="22" spans="17:27">
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
     </row>
     <row r="23" spans="17:27">
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
     </row>
     <row r="24" spans="17:27">
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
     </row>
     <row r="25" spans="17:27">
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3434,88 +3456,88 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:28">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="Z1" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AA1" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AB1" s="13" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3530,8 +3552,8 @@
   <sheetPr/>
   <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -3640,7 +3662,7 @@
       </c>
     </row>
     <row r="2" customFormat="1" ht="14.25" spans="1:29">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3688,37 +3710,37 @@
       <c r="P2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="12" t="s">
         <v>95</v>
       </c>
       <c r="AB2" s="4" t="s">
@@ -3729,17 +3751,17 @@
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:28">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="9"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="8"/>
+      <c r="K3" s="9"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -3759,17 +3781,17 @@
       <c r="AB3" s="1"/>
     </row>
     <row r="4" ht="14.25" spans="1:28">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="9"/>
+      <c r="H4" s="10"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="8"/>
+      <c r="K4" s="9"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -3789,17 +3811,17 @@
       <c r="AB4" s="1"/>
     </row>
     <row r="5" ht="14.25" spans="1:28">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="10"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="8"/>
+      <c r="K5" s="9"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -3819,17 +3841,17 @@
       <c r="AB5" s="1"/>
     </row>
     <row r="6" ht="14.25" spans="1:28">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="10"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="8"/>
+      <c r="K6" s="9"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -3849,17 +3871,17 @@
       <c r="AB6" s="1"/>
     </row>
     <row r="7" ht="14.25" spans="1:28">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="8"/>
+      <c r="K7" s="9"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -3879,17 +3901,17 @@
       <c r="AB7" s="1"/>
     </row>
     <row r="8" ht="14.25" spans="1:28">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="9"/>
+      <c r="H8" s="10"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="8"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -3909,17 +3931,17 @@
       <c r="AB8" s="1"/>
     </row>
     <row r="9" ht="14.25" spans="1:28">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="9"/>
+      <c r="H9" s="10"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="8"/>
+      <c r="K9" s="9"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -3939,17 +3961,17 @@
       <c r="AB9" s="1"/>
     </row>
     <row r="10" ht="14.25" spans="1:28">
-      <c r="A10" s="8"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="9"/>
+      <c r="H10" s="10"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="8"/>
+      <c r="K10" s="9"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -3969,17 +3991,17 @@
       <c r="AB10" s="1"/>
     </row>
     <row r="11" ht="14.25" spans="1:28">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="9"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="8"/>
+      <c r="K11" s="9"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -3999,7 +4021,7 @@
       <c r="AB11" s="1"/>
     </row>
     <row r="12" ht="14.25" spans="1:28">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -4008,7 +4030,7 @@
       <c r="G12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="8"/>
+      <c r="K12" s="9"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -4028,7 +4050,7 @@
       <c r="AB12" s="1"/>
     </row>
     <row r="13" ht="14.25" spans="1:28">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4037,7 +4059,7 @@
       <c r="G13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="8"/>
+      <c r="K13" s="9"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -4057,7 +4079,7 @@
       <c r="AB13" s="1"/>
     </row>
     <row r="14" ht="14.25" spans="1:28">
-      <c r="A14" s="8"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -4066,7 +4088,7 @@
       <c r="G14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="8"/>
+      <c r="K14" s="9"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -4086,7 +4108,7 @@
       <c r="AB14" s="1"/>
     </row>
     <row r="15" ht="14.25" spans="1:28">
-      <c r="A15" s="8"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -4095,7 +4117,7 @@
       <c r="G15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="8"/>
+      <c r="K15" s="9"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -4115,7 +4137,7 @@
       <c r="AB15" s="1"/>
     </row>
     <row r="16" ht="14.25" spans="1:28">
-      <c r="A16" s="10"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -4124,7 +4146,7 @@
       <c r="G16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="10"/>
+      <c r="K16" s="11"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -4144,7 +4166,7 @@
       <c r="AB16" s="1"/>
     </row>
     <row r="17" ht="14.25" spans="1:28">
-      <c r="A17" s="10"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -4153,7 +4175,7 @@
       <c r="G17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="10"/>
+      <c r="K17" s="11"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -4173,7 +4195,7 @@
       <c r="AB17" s="1"/>
     </row>
     <row r="18" ht="14.25" spans="1:28">
-      <c r="A18" s="10"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -4182,7 +4204,7 @@
       <c r="G18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="10"/>
+      <c r="K18" s="11"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -4202,7 +4224,7 @@
       <c r="AB18" s="1"/>
     </row>
     <row r="19" ht="14.25" spans="1:28">
-      <c r="A19" s="10"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -4211,7 +4233,7 @@
       <c r="G19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="10"/>
+      <c r="K19" s="11"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -4231,7 +4253,7 @@
       <c r="AB19" s="1"/>
     </row>
     <row r="20" ht="14.25" spans="1:28">
-      <c r="A20" s="10"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -4240,7 +4262,7 @@
       <c r="G20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="10"/>
+      <c r="K20" s="11"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -4260,7 +4282,7 @@
       <c r="AB20" s="1"/>
     </row>
     <row r="21" ht="14.25" spans="1:28">
-      <c r="A21" s="10"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -4269,7 +4291,7 @@
       <c r="G21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="10"/>
+      <c r="K21" s="11"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -4289,7 +4311,7 @@
       <c r="AB21" s="1"/>
     </row>
     <row r="22" ht="14.25" spans="1:28">
-      <c r="A22" s="10"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -4298,7 +4320,7 @@
       <c r="G22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="10"/>
+      <c r="K22" s="11"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -4329,7 +4351,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4410,7 +4432,7 @@
       <c r="B2" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>141</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -4508,166 +4530,166 @@
       <c r="P5" s="5"/>
     </row>
     <row r="6" ht="14.25" spans="1:16">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
     </row>
     <row r="7" ht="14.25" spans="1:16">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" ht="14.25" spans="1:16">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
     </row>
     <row r="9" ht="14.25" spans="1:16">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" ht="14.25" spans="1:16">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
     </row>
     <row r="11" ht="14.25" spans="1:16">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
     </row>
     <row r="12" ht="14.25" spans="1:16">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
     </row>
     <row r="13" ht="14.25" spans="1:16">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
     </row>
     <row r="14" ht="14.25" spans="1:16">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4682,7 +4704,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4762,7 +4784,7 @@
       <c r="B2" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>141</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -4860,151 +4882,286 @@
       <c r="P5" s="5"/>
     </row>
     <row r="6" ht="14.25" spans="1:16">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
     </row>
     <row r="7" ht="14.25" spans="1:16">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" ht="14.25" spans="1:16">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
     </row>
     <row r="9" ht="14.25" spans="1:16">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" ht="14.25" spans="1:16">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
     </row>
     <row r="11" ht="14.25" spans="1:16">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
     </row>
     <row r="12" ht="14.25" spans="1:16">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
     </row>
     <row r="13" ht="14.25" spans="1:16">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
     </row>
     <row r="14" ht="14.25" spans="9:9">
-      <c r="I14" s="6"/>
+      <c r="I14" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="16" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="19.9" customHeight="1" spans="1:20">
+      <c r="A1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" ht="42.75" spans="1:20">
+      <c r="A2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="S2" t="s">
+        <v>149</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
